--- a/biology/Botanique/Lennoaceae/Lennoaceae.xlsx
+++ b/biology/Botanique/Lennoaceae/Lennoaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Lennoacées regroupe des plantes dicotylédones. 
-En classification classique de Cronquist (1981)[1] elle comprend 5 espèces réparties en 3 genres. 
+En classification classique de Cronquist (1981) elle comprend 5 espèces réparties en 3 genres. 
 Ce sont des plantes herbacées sans chlorophylle, à feuilles réduites à des écailles, parasites, des régions tempérées à subtropicales, que l'on rencontre au sud-ouest des États-Unis, au Mexique et en Colombie.
-La classification phylogénétique APG II (2003)[2], classification phylogénétique APG III (2009)[3] et classification phylogénétique APG IV (2016)[4] incorporent ces plantes, comme la sous-famille Lennooideae, dans les Boraginacées.
+La classification phylogénétique APG II (2003), classification phylogénétique APG III (2009) et classification phylogénétique APG IV (2016) incorporent ces plantes, comme la sous-famille Lennooideae, dans les Boraginacées.
 Il semble que de nombreux sites (BioLib, GRIN, NCBI, Tropicos) recommencent à considérer Lennoaceae comme une famille valide.
 </t>
         </is>
@@ -515,13 +527,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon DELTA Angio           (19 juil. 2010)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon DELTA Angio           (19 juil. 2010) :
 genre Ammobroma
 genre Lennoa
 genre Pholisma
-Selon ITIS      (19 juil. 2010)[6] :
+Selon ITIS      (19 juil. 2010) :
 genre Ammobroma J. Torrey, 1864
 genre Pholisma Nutt. ex Hook.</t>
         </is>
